--- a/biology/Zoologie/Aspidodiadematidae/Aspidodiadematidae.xlsx
+++ b/biology/Zoologie/Aspidodiadematidae/Aspidodiadematidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aspidodiadematidae constituent une famille d'oursins abyssaux de l'ordre des Aspidodiadematoida.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aspidodiadematidae sont des oursins réguliers : leur test (coquille) est de forme ronde, la large bouche (« péristome ») est située au centre de la face orale (inférieure) et l'anus (« périprocte ») à l'opposé (au sommet du test, appelé « apex »), avec les orifices génitaux et le madréporite.
 Leur test est de forme sphérique, avec des plaques coronales rigides. 
@@ -521,8 +535,8 @@
 Les dépressions sphaeridiales sont situées à côté d'une paire de pores sur trois. 
 Les tubercules primaires sont perforés et crénulés. 
 Le péristome est large, entouré d'encoches buccales peu profondes et arrondies. 
-Les radioles (piquants) sont longues, fines et creuses, et l'intérieur montre un réseau de partitions horizontales et de piliers verticaux[2].
-Cette famille semble être apparue au début du Jurassique (Pliensbachien), et est encore répandu dans les abysses des trois principaux bassins océaniques[2].
+Les radioles (piquants) sont longues, fines et creuses, et l'intérieur montre un réseau de partitions horizontales et de piliers verticaux.
+Cette famille semble être apparue au début du Jurassique (Pliensbachien), et est encore répandu dans les abysses des trois principaux bassins océaniques.
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (27 octobre 2013)[3] et World Register of Marine Species                               (27 octobre 2013)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (27 octobre 2013) et World Register of Marine Species                               (27 octobre 2013) :
 genre Aspidodiadema (A. Agassiz, 1878) (11 espèces vivantes)
 genre Plesiodiadema (Pomel, 1883) (7 espèces vivantes)
 genre Culozoma (Vadet &amp; Slowik, 2001) †
